--- a/biology/Botanique/Ehretia_acuminata/Ehretia_acuminata.xlsx
+++ b/biology/Botanique/Ehretia_acuminata/Ehretia_acuminata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ehretia acuminata est un arbre caduc d’Asie de l’Est, tropicale et subtropicale - Chine, Japon Bhoutan, Népal, Laos, Vietnam - et d’Australasie - Nouvelle-Guinée, Australie -.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ehretia acuminata est un arbre de taille moyenne - 10 à 15 m de haut - (une hauteur de 30 mètres a été signalée).
 L’écorce est grise aux fissures verticales.
@@ -547,7 +561,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs variétés ont été recensées :
 Ehretia acuminata var. acuminata R.Br. - 1868
@@ -592,7 +608,9 @@
           <t>Habitat et culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre pousse naturellement dans les terrains ensoleillés (il se développe mal sous un couvert), dans des terrains plutôt humides mais il est très tolérant quant à l’alcalinité ou l’acidité du sol.
 Sa propagation par semis est relativement aisée.
@@ -624,12 +642,14 @@
           <t>Utilisations et intérêts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est comestible, consommé frais à maturité - sucré mais insipide - ou en condiment récolté vert, sans être toutefois commercialement exploité.
 Son bois, quoique d’assez faible résistance - densité : 0,51 - , peut être utilisé en ébénisterie ou en bois d’œuvre.
 Il est aussi planté comme arbre d’ornement.
-Cette espèce est aussi signalée comme plante mellifère dans les plaines côtières[1].
+Cette espèce est aussi signalée comme plante mellifère dans les plaines côtières.
 ↑ Rapport de la FAO : Bees and their role in forest livelihoods - page 64, tableau 12  FAO
 </t>
         </is>
